--- a/biology/Botanique/Dypsis_canaliculata/Dypsis_canaliculata.xlsx
+++ b/biology/Botanique/Dypsis_canaliculata/Dypsis_canaliculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dypsis canaliculata est une espèce de palmiers (Arecaceae), endémique de Madagascar. En 2012 elle est considérée par l'IUCN comme une espèce en danger critique d’extinction. Alors qu'en 1995 elle était considérée comme une espèce éteinte à l'état sauvage.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce endémique de Madagascar est présente entre 250 et 650 m d'altitude. Elle pousse dans la forêt tropicale humide de basse altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce endémique de Madagascar est présente entre 250 et 650 m d'altitude. Elle pousse dans la forêt tropicale humide de basse altitude.
 </t>
         </is>
       </c>
